--- a/data/trans_orig/P23-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9E194DC-B643-4A17-9E95-E6240D4871CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5153FCEB-FA50-47B1-A302-2F004CF8A3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A8B2E8F-012A-47AC-87F6-032EF9F143A0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F57871CC-7DC7-4462-A7D9-7AFF05B172BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="597">
   <si>
     <t>Población según consumo de tabaco en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>41,46%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
   </si>
   <si>
     <t>64,58%</t>
   </si>
   <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
   </si>
   <si>
     <t>52,76%</t>
   </si>
   <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
   </si>
   <si>
     <t>No fuma pero ha fumado</t>
@@ -105,28 +105,28 @@
     <t>17,01%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>12,46%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>Sí fuma pero no diariamente</t>
@@ -135,28 +135,28 @@
     <t>1,93%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>Sí fuma diariamente</t>
@@ -165,1666 +165,1669 @@
     <t>39,59%</t>
   </si>
   <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
     <t>32,73%</t>
   </si>
   <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>30,96%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
   </si>
 </sst>
 </file>
@@ -2236,7 +2239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639D1FAD-8D7D-44F9-BB2C-4A9A802D3C8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC88AA1A-985F-4788-9595-669C4130A591}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2734,13 +2737,13 @@
         <v>7190</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -2749,13 +2752,13 @@
         <v>21070</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2773,13 @@
         <v>177606</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>110</v>
@@ -2785,13 +2788,13 @@
         <v>111467</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>276</v>
@@ -2800,13 +2803,13 @@
         <v>289073</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,7 +2865,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2874,13 +2877,13 @@
         <v>106078</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>226</v>
@@ -2889,13 +2892,13 @@
         <v>226287</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>329</v>
@@ -2904,13 +2907,13 @@
         <v>332365</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2928,13 @@
         <v>64929</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -2940,13 +2943,13 @@
         <v>14236</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>78</v>
@@ -2955,13 +2958,13 @@
         <v>79165</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2979,13 @@
         <v>6803</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2991,13 +2994,13 @@
         <v>18582</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -3006,13 +3009,13 @@
         <v>25385</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3030,13 @@
         <v>141036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -3042,13 +3045,13 @@
         <v>76307</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>212</v>
@@ -3057,13 +3060,13 @@
         <v>217343</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,7 +3122,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3131,13 +3134,13 @@
         <v>112304</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>238</v>
@@ -3146,13 +3149,13 @@
         <v>227402</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>353</v>
@@ -3161,13 +3164,13 @@
         <v>339706</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3185,13 @@
         <v>75880</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>39</v>
@@ -3197,13 +3200,13 @@
         <v>38835</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -3212,13 +3215,13 @@
         <v>114715</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3236,13 @@
         <v>14781</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -3248,13 +3251,13 @@
         <v>11162</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>25</v>
@@ -3263,13 +3266,13 @@
         <v>25943</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3287,13 @@
         <v>155707</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>96</v>
@@ -3299,13 +3302,13 @@
         <v>94057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>252</v>
@@ -3314,13 +3317,13 @@
         <v>249764</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,7 +3379,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3388,13 +3391,13 @@
         <v>76163</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>114</v>
@@ -3403,13 +3406,13 @@
         <v>119114</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>192</v>
@@ -3418,13 +3421,13 @@
         <v>195277</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3442,13 @@
         <v>42816</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -3454,13 +3457,13 @@
         <v>29028</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -3469,13 +3472,13 @@
         <v>71844</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3493,13 @@
         <v>2621</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3508,10 +3511,10 @@
         <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -3520,13 +3523,13 @@
         <v>6625</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3544,13 @@
         <v>81708</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>53</v>
@@ -3556,13 +3559,13 @@
         <v>55522</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>136</v>
@@ -3571,13 +3574,13 @@
         <v>137230</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,7 +3636,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3645,13 +3648,13 @@
         <v>92613</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
@@ -3660,13 +3663,13 @@
         <v>194325</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>278</v>
@@ -3675,13 +3678,13 @@
         <v>286938</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3699,13 @@
         <v>52870</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -3711,13 +3714,13 @@
         <v>18812</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>70</v>
@@ -3726,13 +3729,13 @@
         <v>71682</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3750,13 @@
         <v>7798</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -3762,13 +3765,13 @@
         <v>8334</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -3777,13 +3780,13 @@
         <v>16132</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3801,13 @@
         <v>117530</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="H32" s="7">
         <v>56</v>
@@ -3813,13 +3816,13 @@
         <v>56673</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>172</v>
@@ -3828,13 +3831,13 @@
         <v>174203</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,7 +3893,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3902,13 +3905,13 @@
         <v>287891</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>430</v>
@@ -3917,13 +3920,13 @@
         <v>443996</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>705</v>
@@ -3932,13 +3935,13 @@
         <v>731888</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,13 +3956,13 @@
         <v>92160</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>33</v>
@@ -3968,13 +3971,13 @@
         <v>32870</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>126</v>
@@ -3983,13 +3986,13 @@
         <v>125030</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4007,13 @@
         <v>9422</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -4019,13 +4022,13 @@
         <v>10645</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -4034,13 +4037,13 @@
         <v>20067</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4058,13 @@
         <v>225554</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>147</v>
@@ -4070,13 +4073,13 @@
         <v>150708</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>63</v>
       </c>
       <c r="M37" s="7">
         <v>367</v>
@@ -4085,13 +4088,13 @@
         <v>376262</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,7 +4150,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4159,13 +4162,13 @@
         <v>285716</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H39" s="7">
         <v>493</v>
@@ -4174,13 +4177,13 @@
         <v>520507</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M39" s="7">
         <v>781</v>
@@ -4189,13 +4192,13 @@
         <v>806223</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4213,13 @@
         <v>140601</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H40" s="7">
         <v>73</v>
@@ -4225,13 +4228,13 @@
         <v>76636</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M40" s="7">
         <v>214</v>
@@ -4240,13 +4243,13 @@
         <v>217237</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4264,13 @@
         <v>24467</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H41" s="7">
         <v>17</v>
@@ -4276,13 +4279,13 @@
         <v>17561</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M41" s="7">
         <v>41</v>
@@ -4291,13 +4294,13 @@
         <v>42028</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4315,13 @@
         <v>293010</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H42" s="7">
         <v>162</v>
@@ -4327,13 +4330,13 @@
         <v>168807</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M42" s="7">
         <v>445</v>
@@ -4342,13 +4345,13 @@
         <v>461817</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4419,13 @@
         <v>1260667</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H44" s="7">
         <v>2204</v>
@@ -4431,13 +4434,13 @@
         <v>2259524</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M44" s="7">
         <v>3442</v>
@@ -4446,13 +4449,13 @@
         <v>3520191</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4470,13 @@
         <v>629553</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H45" s="7">
         <v>248</v>
@@ -4482,13 +4485,13 @@
         <v>256344</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M45" s="7">
         <v>874</v>
@@ -4497,13 +4500,13 @@
         <v>885897</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4521,13 @@
         <v>85037</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>111</v>
+        <v>318</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H46" s="7">
         <v>85</v>
@@ -4533,13 +4536,13 @@
         <v>84519</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M46" s="7">
         <v>169</v>
@@ -4548,13 +4551,13 @@
         <v>169556</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>324</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4572,13 @@
         <v>1300244</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H47" s="7">
         <v>760</v>
@@ -4584,13 +4587,13 @@
         <v>778812</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M47" s="7">
         <v>2025</v>
@@ -4599,13 +4602,13 @@
         <v>2079056</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,7 +4664,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4685,7 +4688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4E07FC-7DB0-482B-A05A-08E1BC51E99D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391132F6-F041-448E-B92D-BC4981F1241A}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4702,7 +4705,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4807,39 +4810,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,39 +4855,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,39 +4900,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,39 +4945,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,39 +4990,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5039,13 @@
         <v>171287</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H9" s="7">
         <v>285</v>
@@ -5051,13 +5054,13 @@
         <v>308663</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M9" s="7">
         <v>449</v>
@@ -5066,13 +5069,13 @@
         <v>479950</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5090,13 @@
         <v>126135</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -5102,13 +5105,13 @@
         <v>63884</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -5117,13 +5120,13 @@
         <v>190019</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5141,13 @@
         <v>14675</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -5156,10 +5159,10 @@
         <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -5168,13 +5171,13 @@
         <v>22817</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5192,13 @@
         <v>193429</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H12" s="7">
         <v>130</v>
@@ -5204,13 +5207,13 @@
         <v>143076</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M12" s="7">
         <v>308</v>
@@ -5219,13 +5222,13 @@
         <v>336505</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,7 +5284,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5293,13 +5296,13 @@
         <v>108234</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -5308,13 +5311,13 @@
         <v>218369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>313</v>
@@ -5323,13 +5326,13 @@
         <v>326603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5347,13 @@
         <v>88774</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H15" s="7">
         <v>30</v>
@@ -5359,13 +5362,13 @@
         <v>34232</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M15" s="7">
         <v>116</v>
@@ -5374,13 +5377,13 @@
         <v>123006</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5398,13 @@
         <v>9521</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5410,13 +5413,13 @@
         <v>5986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -5425,13 +5428,13 @@
         <v>15507</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5449,13 @@
         <v>117516</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -5461,13 +5464,13 @@
         <v>81447</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>191</v>
@@ -5476,13 +5479,13 @@
         <v>198963</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,7 +5541,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5550,13 +5553,13 @@
         <v>213776</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H19" s="7">
         <v>363</v>
@@ -5565,13 +5568,13 @@
         <v>387757</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M19" s="7">
         <v>567</v>
@@ -5580,13 +5583,13 @@
         <v>601533</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5604,13 @@
         <v>186538</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -5616,13 +5619,13 @@
         <v>86525</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>252</v>
@@ -5631,13 +5634,13 @@
         <v>273063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5655,13 @@
         <v>21586</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -5667,13 +5670,13 @@
         <v>14976</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -5682,13 +5685,13 @@
         <v>36562</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>31</v>
+        <v>432</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5706,13 @@
         <v>246820</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>432</v>
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H22" s="7">
         <v>172</v>
@@ -5718,13 +5721,13 @@
         <v>186939</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M22" s="7">
         <v>400</v>
@@ -5733,13 +5736,13 @@
         <v>433759</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,7 +5798,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5807,13 +5810,13 @@
         <v>70796</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H24" s="7">
         <v>122</v>
@@ -5822,13 +5825,13 @@
         <v>127300</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M24" s="7">
         <v>190</v>
@@ -5837,13 +5840,13 @@
         <v>198095</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5861,13 @@
         <v>50423</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>453</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -5873,13 +5876,13 @@
         <v>26852</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -5888,13 +5891,13 @@
         <v>77275</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,10 +5915,10 @@
         <v>356</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5924,13 +5927,13 @@
         <v>3854</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -5939,13 +5942,13 @@
         <v>7153</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5963,13 @@
         <v>88101</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>150</v>
+        <v>468</v>
       </c>
       <c r="H27" s="7">
         <v>60</v>
@@ -5975,13 +5978,13 @@
         <v>61585</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="M27" s="7">
         <v>141</v>
@@ -5990,13 +5993,13 @@
         <v>149685</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>332</v>
+        <v>473</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,7 +6055,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6064,13 +6067,13 @@
         <v>104158</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H29" s="7">
         <v>184</v>
@@ -6079,13 +6082,13 @@
         <v>191304</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="M29" s="7">
         <v>279</v>
@@ -6094,13 +6097,13 @@
         <v>295461</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6118,13 @@
         <v>86083</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -6130,13 +6133,13 @@
         <v>21849</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>481</v>
+        <v>278</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>482</v>
+        <v>151</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>102</v>
+        <v>487</v>
       </c>
       <c r="M30" s="7">
         <v>105</v>
@@ -6145,13 +6148,13 @@
         <v>107932</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6169,13 @@
         <v>6842</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -6181,13 +6184,13 @@
         <v>9049</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>488</v>
+        <v>390</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>390</v>
+        <v>493</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -6196,13 +6199,13 @@
         <v>15891</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6220,13 @@
         <v>76898</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="H32" s="7">
         <v>55</v>
@@ -6232,13 +6235,13 @@
         <v>57830</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>494</v>
+        <v>192</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="M32" s="7">
         <v>131</v>
@@ -6247,13 +6250,13 @@
         <v>134728</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>48</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,7 +6312,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6321,13 +6324,13 @@
         <v>212888</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H34" s="7">
         <v>373</v>
@@ -6336,13 +6339,13 @@
         <v>406350</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M34" s="7">
         <v>569</v>
@@ -6351,13 +6354,13 @@
         <v>619239</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6375,13 @@
         <v>169705</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H35" s="7">
         <v>85</v>
@@ -6387,13 +6390,13 @@
         <v>92953</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="M35" s="7">
         <v>244</v>
@@ -6402,13 +6405,13 @@
         <v>262658</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>62</v>
+        <v>518</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6426,13 @@
         <v>22471</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>516</v>
+        <v>76</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -6438,13 +6441,13 @@
         <v>22496</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>519</v>
+        <v>325</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M36" s="7">
         <v>40</v>
@@ -6453,13 +6456,13 @@
         <v>44967</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>526</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>522</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6477,13 @@
         <v>257724</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H37" s="7">
         <v>158</v>
@@ -6489,13 +6492,13 @@
         <v>172054</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>295</v>
+        <v>530</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="M37" s="7">
         <v>401</v>
@@ -6504,13 +6507,13 @@
         <v>429777</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>529</v>
+        <v>194</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,7 +6569,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -6578,13 +6581,13 @@
         <v>350735</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H39" s="7">
         <v>505</v>
@@ -6593,13 +6596,13 @@
         <v>547094</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="M39" s="7">
         <v>832</v>
@@ -6608,13 +6611,13 @@
         <v>897829</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>539</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6632,13 @@
         <v>131180</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H40" s="7">
         <v>61</v>
@@ -6644,13 +6647,13 @@
         <v>66927</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M40" s="7">
         <v>176</v>
@@ -6659,13 +6662,13 @@
         <v>198107</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>548</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,13 +6683,13 @@
         <v>17506</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -6695,13 +6698,13 @@
         <v>9356</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>552</v>
+        <v>35</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>74</v>
+        <v>284</v>
       </c>
       <c r="M41" s="7">
         <v>25</v>
@@ -6710,13 +6713,13 @@
         <v>26863</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6731,13 +6734,13 @@
         <v>278648</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>408</v>
+        <v>557</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H42" s="7">
         <v>182</v>
@@ -6746,13 +6749,13 @@
         <v>199480</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M42" s="7">
         <v>439</v>
@@ -6761,13 +6764,13 @@
         <v>478128</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>338</v>
+        <v>453</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,13 +6838,13 @@
         <v>1231874</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H44" s="7">
         <v>2038</v>
@@ -6850,13 +6853,13 @@
         <v>2186836</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M44" s="7">
         <v>3199</v>
@@ -6865,13 +6868,13 @@
         <v>3418710</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,13 +6889,13 @@
         <v>838839</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H45" s="7">
         <v>360</v>
@@ -6901,13 +6904,13 @@
         <v>393221</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M45" s="7">
         <v>1137</v>
@@ -6916,13 +6919,13 @@
         <v>1232059</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6937,13 +6940,13 @@
         <v>95901</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>551</v>
+        <v>111</v>
       </c>
       <c r="H46" s="7">
         <v>67</v>
@@ -6952,13 +6955,13 @@
         <v>73860</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>584</v>
+        <v>426</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>585</v>
+        <v>185</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>586</v>
+        <v>318</v>
       </c>
       <c r="M46" s="7">
         <v>157</v>
@@ -6967,13 +6970,13 @@
         <v>169761</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>253</v>
+        <v>585</v>
       </c>
       <c r="P46" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,13 +7006,13 @@
         <v>902410</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>496</v>
+        <v>591</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M47" s="7">
         <v>2011</v>
@@ -7018,13 +7021,13 @@
         <v>2161546</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,7 +7083,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5153FCEB-FA50-47B1-A302-2F004CF8A3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{782FF8E0-95F9-44FC-9B13-8BA005A888DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F57871CC-7DC7-4462-A7D9-7AFF05B172BF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C862852-5A86-497C-95A3-09CCB8FD7666}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="591">
   <si>
     <t>Población según consumo de tabaco en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>41,46%</t>
   </si>
   <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
   </si>
   <si>
     <t>64,58%</t>
   </si>
   <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
   </si>
   <si>
     <t>52,76%</t>
   </si>
   <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
   </si>
   <si>
     <t>No fuma pero ha fumado</t>
@@ -105,28 +105,28 @@
     <t>17,01%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>12,46%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>Sí fuma pero no diariamente</t>
@@ -135,1699 +135,1681 @@
     <t>1,93%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>Sí fuma diariamente</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>Sí fuma diariamente</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>2,66%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>30,96%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
+    <t>29,88%</t>
   </si>
 </sst>
 </file>
@@ -2239,7 +2221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC88AA1A-985F-4788-9595-669C4130A591}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F667E6-F59A-48EB-9BC4-56801A66164C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3236,13 +3218,13 @@
         <v>14781</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -3251,13 +3233,13 @@
         <v>11162</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>25</v>
@@ -3266,13 +3248,13 @@
         <v>25943</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3269,13 @@
         <v>155707</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>96</v>
@@ -3302,13 +3284,13 @@
         <v>94057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>252</v>
@@ -3317,13 +3299,13 @@
         <v>249764</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,7 +3361,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3391,13 +3373,13 @@
         <v>76163</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>114</v>
@@ -3406,13 +3388,13 @@
         <v>119114</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>192</v>
@@ -3421,13 +3403,13 @@
         <v>195277</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3424,13 @@
         <v>42816</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -3457,13 +3439,13 @@
         <v>29028</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -3472,13 +3454,13 @@
         <v>71844</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3475,13 @@
         <v>2621</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3511,10 +3493,10 @@
         <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -3523,13 +3505,13 @@
         <v>6625</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3526,13 @@
         <v>81708</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>53</v>
@@ -3559,13 +3541,13 @@
         <v>55522</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>136</v>
@@ -3574,13 +3556,13 @@
         <v>137230</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,7 +3618,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3648,13 +3630,13 @@
         <v>92613</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
@@ -3663,13 +3645,13 @@
         <v>194325</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>278</v>
@@ -3678,13 +3660,13 @@
         <v>286938</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3681,13 @@
         <v>52870</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -3714,13 +3696,13 @@
         <v>18812</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>70</v>
@@ -3729,13 +3711,13 @@
         <v>71682</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3732,13 @@
         <v>7798</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -3765,13 +3747,13 @@
         <v>8334</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -3780,13 +3762,13 @@
         <v>16132</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3783,13 @@
         <v>117530</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>56</v>
@@ -3816,13 +3798,13 @@
         <v>56673</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>172</v>
@@ -3831,13 +3813,13 @@
         <v>174203</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,7 +3875,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3905,13 +3887,13 @@
         <v>287891</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>430</v>
@@ -3920,13 +3902,13 @@
         <v>443996</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>705</v>
@@ -3935,13 +3917,13 @@
         <v>731888</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3938,13 @@
         <v>92160</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>33</v>
@@ -3971,13 +3953,13 @@
         <v>32870</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>126</v>
@@ -3986,13 +3968,13 @@
         <v>125030</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3989,13 @@
         <v>9422</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -4022,13 +4004,13 @@
         <v>10645</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -4037,13 +4019,13 @@
         <v>20067</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4040,13 @@
         <v>225554</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>147</v>
@@ -4073,13 +4055,13 @@
         <v>150708</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M37" s="7">
         <v>367</v>
@@ -4088,13 +4070,13 @@
         <v>376262</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,7 +4132,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4162,13 +4144,13 @@
         <v>285716</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H39" s="7">
         <v>493</v>
@@ -4177,13 +4159,13 @@
         <v>520507</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M39" s="7">
         <v>781</v>
@@ -4192,13 +4174,13 @@
         <v>806223</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4195,13 @@
         <v>140601</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H40" s="7">
         <v>73</v>
@@ -4228,13 +4210,13 @@
         <v>76636</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M40" s="7">
         <v>214</v>
@@ -4243,13 +4225,13 @@
         <v>217237</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4246,13 @@
         <v>24467</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H41" s="7">
         <v>17</v>
@@ -4279,13 +4261,13 @@
         <v>17561</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M41" s="7">
         <v>41</v>
@@ -4294,13 +4276,13 @@
         <v>42028</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4297,13 @@
         <v>293010</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H42" s="7">
         <v>162</v>
@@ -4330,13 +4312,13 @@
         <v>168807</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M42" s="7">
         <v>445</v>
@@ -4345,13 +4327,13 @@
         <v>461817</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4401,13 @@
         <v>1260667</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H44" s="7">
         <v>2204</v>
@@ -4434,28 +4416,28 @@
         <v>2259524</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M44" s="7">
         <v>3442</v>
       </c>
       <c r="N44" s="7">
-        <v>3520191</v>
+        <v>3520190</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4452,13 @@
         <v>629553</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H45" s="7">
         <v>248</v>
@@ -4485,13 +4467,13 @@
         <v>256344</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M45" s="7">
         <v>874</v>
@@ -4500,13 +4482,13 @@
         <v>885897</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4503,13 @@
         <v>85037</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>318</v>
+        <v>114</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H46" s="7">
         <v>85</v>
@@ -4536,13 +4518,13 @@
         <v>84519</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M46" s="7">
         <v>169</v>
@@ -4551,13 +4533,13 @@
         <v>169556</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>75</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4554,13 @@
         <v>1300244</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H47" s="7">
         <v>760</v>
@@ -4587,13 +4569,13 @@
         <v>778812</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M47" s="7">
         <v>2025</v>
@@ -4602,13 +4584,13 @@
         <v>2079056</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,7 +4632,7 @@
         <v>6510</v>
       </c>
       <c r="N48" s="7">
-        <v>6654699</v>
+        <v>6654698</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>50</v>
@@ -4664,7 +4646,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4688,7 +4670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391132F6-F041-448E-B92D-BC4981F1241A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D19C1D-30D0-408C-9D0A-9FCD4220E485}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4705,7 +4687,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4810,39 +4792,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,39 +4837,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,39 +4882,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,39 +4927,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,39 +4972,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5021,13 @@
         <v>171287</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="H9" s="7">
         <v>285</v>
@@ -5054,13 +5036,13 @@
         <v>308663</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M9" s="7">
         <v>449</v>
@@ -5069,13 +5051,13 @@
         <v>479950</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5072,13 @@
         <v>126135</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -5105,13 +5087,13 @@
         <v>63884</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -5120,13 +5102,13 @@
         <v>190019</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5123,13 @@
         <v>14675</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -5156,13 +5138,13 @@
         <v>8142</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -5171,13 +5153,13 @@
         <v>22817</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5174,13 @@
         <v>193429</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>130</v>
@@ -5207,13 +5189,13 @@
         <v>143076</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>366</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M12" s="7">
         <v>308</v>
@@ -5222,13 +5204,13 @@
         <v>336505</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5278,13 @@
         <v>108234</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -5311,13 +5293,13 @@
         <v>218369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>313</v>
@@ -5326,13 +5308,13 @@
         <v>326603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5329,13 @@
         <v>88774</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H15" s="7">
         <v>30</v>
@@ -5362,13 +5344,13 @@
         <v>34232</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M15" s="7">
         <v>116</v>
@@ -5377,13 +5359,13 @@
         <v>123006</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5380,13 @@
         <v>9521</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5413,13 +5395,13 @@
         <v>5986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -5428,13 +5410,13 @@
         <v>15507</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,13 +5431,13 @@
         <v>117516</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -5464,13 +5446,13 @@
         <v>81447</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>191</v>
@@ -5479,13 +5461,13 @@
         <v>198963</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5535,13 @@
         <v>213776</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>363</v>
@@ -5568,13 +5550,13 @@
         <v>387757</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>567</v>
@@ -5583,13 +5565,13 @@
         <v>601533</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5586,13 @@
         <v>186538</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -5619,13 +5601,13 @@
         <v>86525</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>252</v>
@@ -5634,13 +5616,13 @@
         <v>273063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>239</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5637,13 @@
         <v>21586</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>425</v>
+        <v>78</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>426</v>
+        <v>322</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -5670,13 +5652,13 @@
         <v>14976</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -5685,13 +5667,13 @@
         <v>36562</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>432</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5688,13 @@
         <v>246820</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>89</v>
+        <v>426</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>435</v>
+        <v>81</v>
       </c>
       <c r="H22" s="7">
         <v>172</v>
@@ -5721,13 +5703,13 @@
         <v>186939</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>400</v>
@@ -5736,13 +5718,13 @@
         <v>433759</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,7 +5780,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5810,13 +5792,13 @@
         <v>70796</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>443</v>
+        <v>186</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="H24" s="7">
         <v>122</v>
@@ -5825,13 +5807,13 @@
         <v>127300</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="M24" s="7">
         <v>190</v>
@@ -5840,13 +5822,13 @@
         <v>198095</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5843,13 @@
         <v>50423</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -5876,13 +5858,13 @@
         <v>26852</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -5891,13 +5873,13 @@
         <v>77275</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5894,13 @@
         <v>3299</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5927,13 +5909,13 @@
         <v>3854</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -5942,13 +5924,13 @@
         <v>7153</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5945,13 @@
         <v>88101</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="H27" s="7">
         <v>60</v>
@@ -5978,13 +5960,13 @@
         <v>61585</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="M27" s="7">
         <v>141</v>
@@ -5993,13 +5975,13 @@
         <v>149685</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,7 +6037,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6067,13 +6049,13 @@
         <v>104158</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H29" s="7">
         <v>184</v>
@@ -6082,13 +6064,13 @@
         <v>191304</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>279</v>
@@ -6097,13 +6079,13 @@
         <v>295461</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>482</v>
+        <v>374</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6100,13 @@
         <v>86083</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -6133,13 +6115,13 @@
         <v>21849</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>278</v>
+        <v>476</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="M30" s="7">
         <v>105</v>
@@ -6148,13 +6130,13 @@
         <v>107932</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6151,13 @@
         <v>6842</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>491</v>
+        <v>252</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -6184,13 +6166,13 @@
         <v>9049</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>425</v>
+        <v>78</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -6199,13 +6181,13 @@
         <v>15891</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>463</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>495</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6202,13 @@
         <v>76898</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>497</v>
+        <v>119</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>498</v>
+        <v>336</v>
       </c>
       <c r="H32" s="7">
         <v>55</v>
@@ -6235,13 +6217,13 @@
         <v>57830</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>192</v>
+        <v>485</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M32" s="7">
         <v>131</v>
@@ -6250,13 +6232,13 @@
         <v>134728</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,7 +6294,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6324,13 +6306,13 @@
         <v>212888</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="H34" s="7">
         <v>373</v>
@@ -6339,13 +6321,13 @@
         <v>406350</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="M34" s="7">
         <v>569</v>
@@ -6354,13 +6336,13 @@
         <v>619239</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6357,13 @@
         <v>169705</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H35" s="7">
         <v>85</v>
@@ -6390,13 +6372,13 @@
         <v>92953</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="M35" s="7">
         <v>244</v>
@@ -6405,13 +6387,13 @@
         <v>262658</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6408,13 @@
         <v>22471</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>521</v>
+        <v>359</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>76</v>
+        <v>509</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -6441,13 +6423,13 @@
         <v>22496</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>325</v>
+        <v>512</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="M36" s="7">
         <v>40</v>
@@ -6456,13 +6438,13 @@
         <v>44967</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>526</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>221</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6459,13 @@
         <v>257724</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="H37" s="7">
         <v>158</v>
@@ -6492,13 +6474,13 @@
         <v>172054</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="M37" s="7">
         <v>401</v>
@@ -6507,13 +6489,13 @@
         <v>429777</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>194</v>
+        <v>523</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,7 +6551,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -6581,13 +6563,13 @@
         <v>350735</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="H39" s="7">
         <v>505</v>
@@ -6596,13 +6578,13 @@
         <v>547094</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="M39" s="7">
         <v>832</v>
@@ -6611,13 +6593,13 @@
         <v>897829</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>376</v>
+        <v>533</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,13 +6614,13 @@
         <v>131180</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="H40" s="7">
         <v>61</v>
@@ -6647,13 +6629,13 @@
         <v>66927</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="M40" s="7">
         <v>176</v>
@@ -6662,13 +6644,13 @@
         <v>198107</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>280</v>
+        <v>542</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +6665,13 @@
         <v>17506</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -6698,13 +6680,13 @@
         <v>9356</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>35</v>
+        <v>546</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>284</v>
+        <v>357</v>
       </c>
       <c r="M41" s="7">
         <v>25</v>
@@ -6713,13 +6695,13 @@
         <v>26863</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,13 +6716,13 @@
         <v>278648</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>558</v>
+        <v>466</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="H42" s="7">
         <v>182</v>
@@ -6749,13 +6731,13 @@
         <v>199480</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="M42" s="7">
         <v>439</v>
@@ -6764,13 +6746,13 @@
         <v>478128</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>453</v>
+        <v>556</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,13 +6820,13 @@
         <v>1231874</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H44" s="7">
         <v>2038</v>
@@ -6853,13 +6835,13 @@
         <v>2186836</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="M44" s="7">
         <v>3199</v>
@@ -6868,13 +6850,13 @@
         <v>3418710</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,13 +6871,13 @@
         <v>838839</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H45" s="7">
         <v>360</v>
@@ -6904,13 +6886,13 @@
         <v>393221</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M45" s="7">
         <v>1137</v>
@@ -6919,13 +6901,13 @@
         <v>1232059</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6922,13 @@
         <v>95901</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>111</v>
+        <v>579</v>
       </c>
       <c r="H46" s="7">
         <v>67</v>
@@ -6955,13 +6937,13 @@
         <v>73860</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>426</v>
+        <v>580</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>185</v>
+        <v>581</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>318</v>
+        <v>582</v>
       </c>
       <c r="M46" s="7">
         <v>157</v>
@@ -6970,13 +6952,13 @@
         <v>169761</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>587</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,13 +6973,13 @@
         <v>1259135</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>588</v>
+        <v>49</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H47" s="7">
         <v>831</v>
@@ -7006,13 +6988,13 @@
         <v>902410</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M47" s="7">
         <v>2011</v>
@@ -7021,13 +7003,13 @@
         <v>2161546</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>596</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,7 +7065,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23-Provincia-trans_orig.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{782FF8E0-95F9-44FC-9B13-8BA005A888DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99959E29-E566-4EC5-BD05-B0DDEB134F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C862852-5A86-497C-95A3-09CCB8FD7666}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E0CF3514-060F-4C7F-B5A7-A2AE1CD82046}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="591">
-  <si>
-    <t>Población según consumo de tabaco en 2007 (Tasa respuesta: 99,98%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="899">
+  <si>
+    <t>Población según consumo de tabaco (2007/2012) en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -1041,10 +1042,109 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según consumo de tabaco en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>Población según consumo de tabaco (2007/2012) en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
   </si>
   <si>
     <t>33,88%</t>
@@ -1245,571 +1345,1396 @@
     <t>33,97%</t>
   </si>
   <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>Población según consumo de tabaco (2007/2012) en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
     <t>31,97%</t>
   </si>
   <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
   </si>
 </sst>
 </file>
@@ -2221,7 +3146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F667E6-F59A-48EB-9BC4-56801A66164C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE68CBAD-1B8D-4BFC-AAB1-D810C6319A79}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4413,7 +5338,7 @@
         <v>2204</v>
       </c>
       <c r="I44" s="7">
-        <v>2259524</v>
+        <v>2259523</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>301</v>
@@ -4566,7 +5491,7 @@
         <v>760</v>
       </c>
       <c r="I47" s="7">
-        <v>778812</v>
+        <v>778811</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>327</v>
@@ -4617,7 +5542,7 @@
         <v>3297</v>
       </c>
       <c r="I48" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>50</v>
@@ -4670,7 +5595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D19C1D-30D0-408C-9D0A-9FCD4220E485}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C1B257-9C1B-45DD-8619-3876ABDA20DA}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4788,43 +5713,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="D4" s="7">
+        <v>77158</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="I4" s="7">
+        <v>149281</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="N4" s="7">
+        <v>226439</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,43 +5764,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="D5" s="7">
+        <v>81101</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="I5" s="7">
+        <v>40033</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="N5" s="7">
+        <v>121133</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,43 +5815,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9755</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7344</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="N6" s="7">
+        <v>17099</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>335</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>335</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,43 +5866,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="D7" s="7">
+        <v>126724</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="I7" s="7">
+        <v>90587</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>199</v>
+      </c>
+      <c r="N7" s="7">
+        <v>217311</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,43 +5917,49 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D8" s="7">
+        <v>294738</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>335</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I8" s="7">
+        <v>287245</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>335</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N8" s="7">
+        <v>581983</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>335</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,10 +5976,10 @@
         <v>171287</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>325</v>
@@ -5036,13 +5991,13 @@
         <v>308663</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="M9" s="7">
         <v>449</v>
@@ -5051,13 +6006,13 @@
         <v>479950</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +6027,13 @@
         <v>126135</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -5087,13 +6042,13 @@
         <v>63884</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -5102,13 +6057,13 @@
         <v>190019</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,7 +6081,7 @@
         <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>64</v>
@@ -5138,13 +6093,13 @@
         <v>8142</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -5153,13 +6108,13 @@
         <v>22817</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +6129,13 @@
         <v>193429</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="H12" s="7">
         <v>130</v>
@@ -5192,10 +6147,10 @@
         <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="M12" s="7">
         <v>308</v>
@@ -5204,13 +6159,13 @@
         <v>336505</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +6233,13 @@
         <v>108234</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -5293,13 +6248,13 @@
         <v>218369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>313</v>
@@ -5308,13 +6263,13 @@
         <v>326603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +6284,13 @@
         <v>88774</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="H15" s="7">
         <v>30</v>
@@ -5344,13 +6299,13 @@
         <v>34232</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="M15" s="7">
         <v>116</v>
@@ -5359,13 +6314,13 @@
         <v>123006</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,10 +6338,10 @@
         <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5395,13 +6350,13 @@
         <v>5986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -5410,13 +6365,13 @@
         <v>15507</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +6386,13 @@
         <v>117516</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -5446,13 +6401,13 @@
         <v>81447</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="M17" s="7">
         <v>191</v>
@@ -5461,13 +6416,13 @@
         <v>198963</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,49 +6484,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="D19" s="7">
-        <v>213776</v>
+        <v>136618</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="H19" s="7">
-        <v>363</v>
+        <v>225</v>
       </c>
       <c r="I19" s="7">
-        <v>387757</v>
+        <v>238475</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="M19" s="7">
-        <v>567</v>
+        <v>353</v>
       </c>
       <c r="N19" s="7">
-        <v>601533</v>
+        <v>375094</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,49 +6535,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="D20" s="7">
-        <v>186538</v>
+        <v>105437</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H20" s="7">
+        <v>46</v>
+      </c>
+      <c r="I20" s="7">
+        <v>46492</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="M20" s="7">
+        <v>143</v>
+      </c>
+      <c r="N20" s="7">
+        <v>151929</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="H20" s="7">
-        <v>80</v>
-      </c>
-      <c r="I20" s="7">
-        <v>86525</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="M20" s="7">
-        <v>252</v>
-      </c>
-      <c r="N20" s="7">
-        <v>273063</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,49 +6586,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D21" s="7">
-        <v>21586</v>
+        <v>11831</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>322</v>
+        <v>180</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="H21" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>14976</v>
+        <v>7632</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>420</v>
+        <v>287</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>421</v>
+        <v>247</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="M21" s="7">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N21" s="7">
-        <v>36562</v>
+        <v>19463</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>423</v>
+        <v>321</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>31</v>
+        <v>387</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,49 +6637,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="D22" s="7">
-        <v>246820</v>
+        <v>120095</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="I22" s="7">
-        <v>186939</v>
+        <v>96352</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="M22" s="7">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="N22" s="7">
-        <v>433759</v>
+        <v>216447</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,10 +6688,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D23" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -5748,10 +6703,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I23" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -5763,10 +6718,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N23" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -5792,13 +6747,13 @@
         <v>70796</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>186</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="H24" s="7">
         <v>122</v>
@@ -5807,13 +6762,13 @@
         <v>127300</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="M24" s="7">
         <v>190</v>
@@ -5822,13 +6777,13 @@
         <v>198095</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +6798,13 @@
         <v>50423</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -5858,13 +6813,13 @@
         <v>26852</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -5873,13 +6828,13 @@
         <v>77275</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +6849,13 @@
         <v>3299</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5909,13 +6864,13 @@
         <v>3854</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -5924,13 +6879,13 @@
         <v>7153</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +6900,13 @@
         <v>88101</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="H27" s="7">
         <v>60</v>
@@ -5960,13 +6915,13 @@
         <v>61585</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="M27" s="7">
         <v>141</v>
@@ -5975,13 +6930,13 @@
         <v>149685</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,13 +7004,13 @@
         <v>104158</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="H29" s="7">
         <v>184</v>
@@ -6064,13 +7019,13 @@
         <v>191304</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="M29" s="7">
         <v>279</v>
@@ -6079,13 +7034,13 @@
         <v>295461</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +7055,13 @@
         <v>86083</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -6115,13 +7070,13 @@
         <v>21849</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>64</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="M30" s="7">
         <v>105</v>
@@ -6130,13 +7085,13 @@
         <v>107932</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,7 +7112,7 @@
         <v>252</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -6169,10 +7124,10 @@
         <v>78</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -6181,7 +7136,7 @@
         <v>15891</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>217</v>
@@ -6202,13 +7157,13 @@
         <v>76898</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>119</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="H32" s="7">
         <v>55</v>
@@ -6217,13 +7172,13 @@
         <v>57830</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="M32" s="7">
         <v>131</v>
@@ -6232,13 +7187,13 @@
         <v>134728</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>489</v>
+        <v>350</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,13 +7261,13 @@
         <v>212888</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="H34" s="7">
         <v>373</v>
@@ -6321,13 +7276,13 @@
         <v>406350</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="M34" s="7">
         <v>569</v>
@@ -6336,13 +7291,13 @@
         <v>619239</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +7312,13 @@
         <v>169705</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="H35" s="7">
         <v>85</v>
@@ -6372,13 +7327,13 @@
         <v>92953</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="M35" s="7">
         <v>244</v>
@@ -6387,13 +7342,13 @@
         <v>262658</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +7363,13 @@
         <v>22471</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -6423,13 +7378,13 @@
         <v>22496</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="M36" s="7">
         <v>40</v>
@@ -6438,13 +7393,13 @@
         <v>44967</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>514</v>
+        <v>353</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +7414,13 @@
         <v>257724</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="H37" s="7">
         <v>158</v>
@@ -6474,13 +7429,13 @@
         <v>172054</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="M37" s="7">
         <v>401</v>
@@ -6489,13 +7444,13 @@
         <v>429777</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>522</v>
+        <v>337</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +7518,13 @@
         <v>350735</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="H39" s="7">
         <v>505</v>
@@ -6578,13 +7533,13 @@
         <v>547094</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="M39" s="7">
         <v>832</v>
@@ -6593,13 +7548,13 @@
         <v>897829</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +7569,13 @@
         <v>131180</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="H40" s="7">
         <v>61</v>
@@ -6629,13 +7584,13 @@
         <v>66927</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="M40" s="7">
         <v>176</v>
@@ -6644,13 +7599,13 @@
         <v>198107</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +7620,13 @@
         <v>17506</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>543</v>
+        <v>569</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>544</v>
+        <v>570</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>545</v>
+        <v>571</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -6680,13 +7635,13 @@
         <v>9356</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="M41" s="7">
         <v>25</v>
@@ -6695,13 +7650,13 @@
         <v>26863</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>548</v>
+        <v>574</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +7671,13 @@
         <v>278648</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="H42" s="7">
         <v>182</v>
@@ -6731,13 +7686,13 @@
         <v>199480</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="M42" s="7">
         <v>439</v>
@@ -6746,13 +7701,13 @@
         <v>478128</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +7775,13 @@
         <v>1231874</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>559</v>
+        <v>585</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="H44" s="7">
         <v>2038</v>
@@ -6835,13 +7790,13 @@
         <v>2186836</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="M44" s="7">
         <v>3199</v>
@@ -6850,13 +7805,13 @@
         <v>3418710</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,13 +7826,13 @@
         <v>838839</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="H45" s="7">
         <v>360</v>
@@ -6886,13 +7841,13 @@
         <v>393221</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="M45" s="7">
         <v>1137</v>
@@ -6901,13 +7856,13 @@
         <v>1232059</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6922,13 +7877,13 @@
         <v>95901</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="H46" s="7">
         <v>67</v>
@@ -6937,13 +7892,13 @@
         <v>73860</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="M46" s="7">
         <v>157</v>
@@ -6952,10 +7907,10 @@
         <v>169761</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>211</v>
@@ -6976,10 +7931,10 @@
         <v>49</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="H47" s="7">
         <v>831</v>
@@ -6988,13 +7943,13 @@
         <v>902410</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="M47" s="7">
         <v>2011</v>
@@ -7003,13 +7958,13 @@
         <v>2161546</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7052,6 +8007,2455 @@
       </c>
       <c r="N48" s="7">
         <v>6982076</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD3BA38-5063-4195-9441-65F2C13FAEA2}">
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>94</v>
+      </c>
+      <c r="D4" s="7">
+        <v>106685</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="H4" s="7">
+        <v>152</v>
+      </c>
+      <c r="I4" s="7">
+        <v>160164</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="M4" s="7">
+        <v>246</v>
+      </c>
+      <c r="N4" s="7">
+        <v>266849</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>76</v>
+      </c>
+      <c r="D5" s="7">
+        <v>79162</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="H5" s="7">
+        <v>52</v>
+      </c>
+      <c r="I5" s="7">
+        <v>54826</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="M5" s="7">
+        <v>128</v>
+      </c>
+      <c r="N5" s="7">
+        <v>133988</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10734</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="H6" s="7">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8564</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="M6" s="7">
+        <v>19</v>
+      </c>
+      <c r="N6" s="7">
+        <v>19298</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7">
+        <v>86</v>
+      </c>
+      <c r="D7" s="7">
+        <v>97180</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="H7" s="7">
+        <v>64</v>
+      </c>
+      <c r="I7" s="7">
+        <v>65149</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="M7" s="7">
+        <v>150</v>
+      </c>
+      <c r="N7" s="7">
+        <v>162329</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>266</v>
+      </c>
+      <c r="D8" s="7">
+        <v>293761</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
+        <v>277</v>
+      </c>
+      <c r="I8" s="7">
+        <v>288703</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7">
+        <v>543</v>
+      </c>
+      <c r="N8" s="7">
+        <v>582464</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <v>195</v>
+      </c>
+      <c r="D9" s="7">
+        <v>206748</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="H9" s="7">
+        <v>310</v>
+      </c>
+      <c r="I9" s="7">
+        <v>340052</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="M9" s="7">
+        <v>505</v>
+      </c>
+      <c r="N9" s="7">
+        <v>546799</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>83</v>
+      </c>
+      <c r="D10" s="7">
+        <v>84868</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="H10" s="7">
+        <v>37</v>
+      </c>
+      <c r="I10" s="7">
+        <v>39033</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="M10" s="7">
+        <v>120</v>
+      </c>
+      <c r="N10" s="7">
+        <v>123901</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7">
+        <v>14931</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5184</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="M11" s="7">
+        <v>19</v>
+      </c>
+      <c r="N11" s="7">
+        <v>20115</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7">
+        <v>182</v>
+      </c>
+      <c r="D12" s="7">
+        <v>195165</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="H12" s="7">
+        <v>130</v>
+      </c>
+      <c r="I12" s="7">
+        <v>136617</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="M12" s="7">
+        <v>312</v>
+      </c>
+      <c r="N12" s="7">
+        <v>331782</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>474</v>
+      </c>
+      <c r="D13" s="7">
+        <v>501711</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7">
+        <v>482</v>
+      </c>
+      <c r="I13" s="7">
+        <v>520886</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="7">
+        <v>956</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1022597</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <v>160</v>
+      </c>
+      <c r="D14" s="7">
+        <v>152272</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="H14" s="7">
+        <v>217</v>
+      </c>
+      <c r="I14" s="7">
+        <v>224485</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="M14" s="7">
+        <v>377</v>
+      </c>
+      <c r="N14" s="7">
+        <v>376757</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7">
+        <v>75</v>
+      </c>
+      <c r="D15" s="7">
+        <v>69962</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="H15" s="7">
+        <v>32</v>
+      </c>
+      <c r="I15" s="7">
+        <v>30421</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="M15" s="7">
+        <v>107</v>
+      </c>
+      <c r="N15" s="7">
+        <v>100384</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7360</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6292</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="M16" s="7">
+        <v>13</v>
+      </c>
+      <c r="N16" s="7">
+        <v>13653</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7">
+        <v>93</v>
+      </c>
+      <c r="D17" s="7">
+        <v>88971</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="H17" s="7">
+        <v>77</v>
+      </c>
+      <c r="I17" s="7">
+        <v>75111</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="M17" s="7">
+        <v>170</v>
+      </c>
+      <c r="N17" s="7">
+        <v>164081</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>335</v>
+      </c>
+      <c r="D18" s="7">
+        <v>318565</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7">
+        <v>332</v>
+      </c>
+      <c r="I18" s="7">
+        <v>336309</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="7">
+        <v>667</v>
+      </c>
+      <c r="N18" s="7">
+        <v>654874</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>124</v>
+      </c>
+      <c r="D19" s="7">
+        <v>129941</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="H19" s="7">
+        <v>207</v>
+      </c>
+      <c r="I19" s="7">
+        <v>226535</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="M19" s="7">
+        <v>331</v>
+      </c>
+      <c r="N19" s="7">
+        <v>356475</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>98</v>
+      </c>
+      <c r="D20" s="7">
+        <v>97819</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="H20" s="7">
+        <v>49</v>
+      </c>
+      <c r="I20" s="7">
+        <v>50706</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="M20" s="7">
+        <v>147</v>
+      </c>
+      <c r="N20" s="7">
+        <v>148525</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7">
+        <v>9486</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="H21" s="7">
+        <v>13</v>
+      </c>
+      <c r="I21" s="7">
+        <v>13173</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="M21" s="7">
+        <v>22</v>
+      </c>
+      <c r="N21" s="7">
+        <v>22659</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7">
+        <v>123</v>
+      </c>
+      <c r="D22" s="7">
+        <v>132719</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="H22" s="7">
+        <v>88</v>
+      </c>
+      <c r="I22" s="7">
+        <v>95584</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="M22" s="7">
+        <v>211</v>
+      </c>
+      <c r="N22" s="7">
+        <v>228303</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>354</v>
+      </c>
+      <c r="D23" s="7">
+        <v>369964</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
+        <v>357</v>
+      </c>
+      <c r="I23" s="7">
+        <v>385998</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="7">
+        <v>711</v>
+      </c>
+      <c r="N23" s="7">
+        <v>755962</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>84</v>
+      </c>
+      <c r="D24" s="7">
+        <v>81275</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="H24" s="7">
+        <v>141</v>
+      </c>
+      <c r="I24" s="7">
+        <v>140265</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="M24" s="7">
+        <v>225</v>
+      </c>
+      <c r="N24" s="7">
+        <v>221540</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>45</v>
+      </c>
+      <c r="D25" s="7">
+        <v>44060</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="H25" s="7">
+        <v>22</v>
+      </c>
+      <c r="I25" s="7">
+        <v>21679</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="M25" s="7">
+        <v>67</v>
+      </c>
+      <c r="N25" s="7">
+        <v>65739</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>6025</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6025</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7">
+        <v>77</v>
+      </c>
+      <c r="D27" s="7">
+        <v>79862</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="H27" s="7">
+        <v>60</v>
+      </c>
+      <c r="I27" s="7">
+        <v>56643</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="M27" s="7">
+        <v>137</v>
+      </c>
+      <c r="N27" s="7">
+        <v>136504</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>212</v>
+      </c>
+      <c r="D28" s="7">
+        <v>211221</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
+        <v>223</v>
+      </c>
+      <c r="I28" s="7">
+        <v>218587</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="7">
+        <v>435</v>
+      </c>
+      <c r="N28" s="7">
+        <v>429808</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="7">
+        <v>122</v>
+      </c>
+      <c r="D29" s="7">
+        <v>123503</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="H29" s="7">
+        <v>175</v>
+      </c>
+      <c r="I29" s="7">
+        <v>183257</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="M29" s="7">
+        <v>297</v>
+      </c>
+      <c r="N29" s="7">
+        <v>306761</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7">
+        <v>51</v>
+      </c>
+      <c r="D30" s="7">
+        <v>50419</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="H30" s="7">
+        <v>17</v>
+      </c>
+      <c r="I30" s="7">
+        <v>16800</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="M30" s="7">
+        <v>68</v>
+      </c>
+      <c r="N30" s="7">
+        <v>67218</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3910</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="H31" s="7">
+        <v>7</v>
+      </c>
+      <c r="I31" s="7">
+        <v>8029</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="M31" s="7">
+        <v>11</v>
+      </c>
+      <c r="N31" s="7">
+        <v>11939</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="7">
+        <v>82</v>
+      </c>
+      <c r="D32" s="7">
+        <v>85291</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="H32" s="7">
+        <v>64</v>
+      </c>
+      <c r="I32" s="7">
+        <v>65029</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="M32" s="7">
+        <v>146</v>
+      </c>
+      <c r="N32" s="7">
+        <v>150320</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>259</v>
+      </c>
+      <c r="D33" s="7">
+        <v>263123</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="7">
+        <v>263</v>
+      </c>
+      <c r="I33" s="7">
+        <v>273115</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="7">
+        <v>522</v>
+      </c>
+      <c r="N33" s="7">
+        <v>536238</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7">
+        <v>291</v>
+      </c>
+      <c r="D34" s="7">
+        <v>322405</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="H34" s="7">
+        <v>395</v>
+      </c>
+      <c r="I34" s="7">
+        <v>427355</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="M34" s="7">
+        <v>686</v>
+      </c>
+      <c r="N34" s="7">
+        <v>749759</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="7">
+        <v>115</v>
+      </c>
+      <c r="D35" s="7">
+        <v>130989</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="H35" s="7">
+        <v>81</v>
+      </c>
+      <c r="I35" s="7">
+        <v>87173</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="M35" s="7">
+        <v>196</v>
+      </c>
+      <c r="N35" s="7">
+        <v>218162</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="7">
+        <v>18</v>
+      </c>
+      <c r="D36" s="7">
+        <v>20145</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="H36" s="7">
+        <v>23</v>
+      </c>
+      <c r="I36" s="7">
+        <v>23504</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="M36" s="7">
+        <v>41</v>
+      </c>
+      <c r="N36" s="7">
+        <v>43649</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="7">
+        <v>155</v>
+      </c>
+      <c r="D37" s="7">
+        <v>181947</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="H37" s="7">
+        <v>145</v>
+      </c>
+      <c r="I37" s="7">
+        <v>151308</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="M37" s="7">
+        <v>300</v>
+      </c>
+      <c r="N37" s="7">
+        <v>333255</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
+        <v>579</v>
+      </c>
+      <c r="D38" s="7">
+        <v>655486</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>644</v>
+      </c>
+      <c r="I38" s="7">
+        <v>689339</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1223</v>
+      </c>
+      <c r="N38" s="7">
+        <v>1344825</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>376</v>
+      </c>
+      <c r="D39" s="7">
+        <v>381908</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="H39" s="7">
+        <v>476</v>
+      </c>
+      <c r="I39" s="7">
+        <v>525338</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="M39" s="7">
+        <v>852</v>
+      </c>
+      <c r="N39" s="7">
+        <v>907245</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>133</v>
+      </c>
+      <c r="D40" s="7">
+        <v>140666</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="H40" s="7">
+        <v>75</v>
+      </c>
+      <c r="I40" s="7">
+        <v>86541</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="M40" s="7">
+        <v>208</v>
+      </c>
+      <c r="N40" s="7">
+        <v>227207</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>20</v>
+      </c>
+      <c r="D41" s="7">
+        <v>20773</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="H41" s="7">
+        <v>9</v>
+      </c>
+      <c r="I41" s="7">
+        <v>9658</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M41" s="7">
+        <v>29</v>
+      </c>
+      <c r="N41" s="7">
+        <v>30431</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>221</v>
+      </c>
+      <c r="D42" s="7">
+        <v>235237</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H42" s="7">
+        <v>195</v>
+      </c>
+      <c r="I42" s="7">
+        <v>204631</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="M42" s="7">
+        <v>416</v>
+      </c>
+      <c r="N42" s="7">
+        <v>439867</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>750</v>
+      </c>
+      <c r="D43" s="7">
+        <v>778583</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
+        <v>755</v>
+      </c>
+      <c r="I43" s="7">
+        <v>826167</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
+        <v>1505</v>
+      </c>
+      <c r="N43" s="7">
+        <v>1604750</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1446</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1504736</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="H44" s="7">
+        <v>2073</v>
+      </c>
+      <c r="I44" s="7">
+        <v>2227448</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="M44" s="7">
+        <v>3519</v>
+      </c>
+      <c r="N44" s="7">
+        <v>3732184</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="7">
+        <v>676</v>
+      </c>
+      <c r="D45" s="7">
+        <v>697944</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="H45" s="7">
+        <v>365</v>
+      </c>
+      <c r="I45" s="7">
+        <v>387179</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1041</v>
+      </c>
+      <c r="N45" s="7">
+        <v>1085124</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="7">
+        <v>88</v>
+      </c>
+      <c r="D46" s="7">
+        <v>93364</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="H46" s="7">
+        <v>72</v>
+      </c>
+      <c r="I46" s="7">
+        <v>74404</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="M46" s="7">
+        <v>160</v>
+      </c>
+      <c r="N46" s="7">
+        <v>167768</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1019</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1096370</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="H47" s="7">
+        <v>823</v>
+      </c>
+      <c r="I47" s="7">
+        <v>850072</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="M47" s="7">
+        <v>1842</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1946442</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7">
+        <v>3229</v>
+      </c>
+      <c r="D48" s="7">
+        <v>3392414</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="7">
+        <v>3333</v>
+      </c>
+      <c r="I48" s="7">
+        <v>3539103</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M48" s="7">
+        <v>6562</v>
+      </c>
+      <c r="N48" s="7">
+        <v>6931517</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>50</v>

--- a/data/trans_orig/P23-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23-Provincia-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco y/o marihuana/hachís, actual o pasado (2007/2012/2016) en 2007</t>
+          <t>Población según el consumo de tabaco y/o marihuana/hachís, actual o pasado en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5910,7 +5910,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco y/o marihuana/hachís, actual o pasado (2007/2012/2016) en 2012</t>
+          <t>Población según el consumo de tabaco y/o marihuana/hachís, actual o pasado en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -11275,7 +11275,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco y/o marihuana/hachís, actual o pasado (2007/2012/2016) en 2016</t>
+          <t>Población según el consumo de tabaco y/o marihuana/hachís, actual o pasado en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
